--- a/EXCEL_TRABAJADO/2023-2dl.xlsx
+++ b/EXCEL_TRABAJADO/2023-2dl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF2B4C1-BADE-4182-A0A5-DCB000906BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4369864-4E5A-4F75-A028-1ADD5BA179E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="cargas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="115">
   <si>
     <t>HORAE</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_dcl=78</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,11 +474,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1059,7 +1071,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,301 +1135,301 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="10">
         <v>2</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="10">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2</v>
+      </c>
+      <c r="J3" s="10">
+        <v>17</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L3" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M3" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="N3" s="7"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7">
-        <v>17</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="H4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4">
         <v>17</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="N4" s="7"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="H5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5">
         <v>17</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="N5" s="7"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6">
         <v>17</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="1">
         <v>0.72916666666666663</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="N6" s="7"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7">
         <v>17</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="1">
         <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="12">
         <v>2</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="12">
         <v>17</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0.72916666666666663</v>
+      <c r="K8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M8" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1443,7 +1455,7 @@
         <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I9" s="6">
         <v>2</v>
@@ -1451,13 +1463,13 @@
       <c r="J9" s="6">
         <v>17</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="1">
         <v>0.72916666666666663</v>
       </c>
     </row>
@@ -1484,7 +1496,7 @@
         <v>102</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
@@ -1492,7 +1504,7 @@
       <c r="J10" s="6">
         <v>17</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="1">
@@ -1525,15 +1537,15 @@
         <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="6">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="1">
@@ -1566,7 +1578,7 @@
         <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
@@ -1574,7 +1586,7 @@
       <c r="J12" s="6">
         <v>17</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="1">
@@ -1607,7 +1619,7 @@
         <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
@@ -1615,7 +1627,7 @@
       <c r="J13" s="6">
         <v>17</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="1">
@@ -1648,7 +1660,7 @@
         <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
@@ -1656,7 +1668,7 @@
       <c r="J14" s="6">
         <v>17</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="1">
@@ -1689,7 +1701,7 @@
         <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
@@ -1697,7 +1709,7 @@
       <c r="J15" s="6">
         <v>17</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" t="s">
         <v>13</v>
       </c>
       <c r="L15" s="1">
